--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\bedrijven_dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1EB78-449B-4BAA-B7C4-92E7D41C04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12CB24-D428-481D-A702-368E96A33E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -727,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="5">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5">
         <v>0</v>
@@ -765,8 +765,8 @@
       <c r="T2" s="13">
         <v>45494</v>
       </c>
-      <c r="U2" s="5">
-        <v>18200</v>
+      <c r="U2" s="13">
+        <v>45494</v>
       </c>
       <c r="V2" s="5">
         <v>18000</v>

--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\bedrijven_dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12CB24-D428-481D-A702-368E96A33E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5D536-9174-462F-871F-3BD8CB0EFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,18 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$U$1:$U$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$163</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>bedrijfsnaam</t>
   </si>
   <si>
-    <t>producten</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
     <t>zonnepanelen</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>jaarkilometrage_bestel</t>
   </si>
   <si>
-    <t>Vervoer en opslag / groothandel </t>
-  </si>
-  <si>
     <t>Groothandel zonder koeling</t>
   </si>
   <si>
@@ -124,23 +115,20 @@
     <t>laadprofiel smart</t>
   </si>
   <si>
-    <t>CTS group - vestiging STP</t>
-  </si>
-  <si>
-    <t>Goederenvervoer over de weg</t>
-  </si>
-  <si>
-    <t>CTS_normaal</t>
-  </si>
-  <si>
-    <t>CTS_smart</t>
+    <t>Bedrijf 1</t>
+  </si>
+  <si>
+    <t>normaal</t>
+  </si>
+  <si>
+    <t>smart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,12 +154,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -249,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -278,8 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,200 +565,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE163"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="5"/>
-    <col min="12" max="12" width="13.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" style="8"/>
-    <col min="17" max="17" width="18.109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="5" customWidth="1"/>
-    <col min="20" max="21" width="19.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="25" style="5" customWidth="1"/>
-    <col min="23" max="23" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="5"/>
+    <col min="10" max="10" width="13.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="8"/>
+    <col min="15" max="15" width="18.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" style="5" customWidth="1"/>
+    <col min="18" max="19" width="19.33203125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="25" style="5" customWidth="1"/>
+    <col min="21" max="21" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:29">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="W1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="11" t="s">
-        <v>28</v>
+      <c r="Y1" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="AC1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5">
+        <v>23</v>
       </c>
       <c r="E2" s="5">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="F2" s="3">
         <v>3669</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
       </c>
       <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
         <v>0</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="5">
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5">
         <v>900000</v>
       </c>
-      <c r="T2" s="13">
+      <c r="R2" s="12">
         <v>45494</v>
       </c>
-      <c r="U2" s="13">
+      <c r="S2" s="12">
         <v>45494</v>
       </c>
+      <c r="T2" s="5">
+        <v>18000</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
       <c r="V2" s="5">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="W2" s="5">
         <v>0</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
@@ -792,14 +765,8 @@
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:29">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -824,10 +791,8 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:31">
+    </row>
+    <row r="4" spans="1:29">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -852,10 +817,8 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:31">
+    </row>
+    <row r="5" spans="1:29">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -880,10 +843,8 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:31">
+    </row>
+    <row r="6" spans="1:29">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -908,10 +869,8 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:31">
+    </row>
+    <row r="7" spans="1:29">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -936,10 +895,8 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:31">
+    </row>
+    <row r="8" spans="1:29">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -964,10 +921,8 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="1:31">
+    </row>
+    <row r="9" spans="1:29">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -992,10 +947,8 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-    </row>
-    <row r="10" spans="1:31">
+    </row>
+    <row r="10" spans="1:29">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1020,10 +973,8 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-    </row>
-    <row r="11" spans="1:31">
+    </row>
+    <row r="11" spans="1:29">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1048,10 +999,8 @@
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-    </row>
-    <row r="12" spans="1:31">
+    </row>
+    <row r="12" spans="1:29">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1076,10 +1025,8 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-    </row>
-    <row r="13" spans="1:31">
+    </row>
+    <row r="13" spans="1:29">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1104,10 +1051,8 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-    </row>
-    <row r="14" spans="1:31">
+    </row>
+    <row r="14" spans="1:29">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1132,10 +1077,8 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-    </row>
-    <row r="15" spans="1:31">
+    </row>
+    <row r="15" spans="1:29">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1160,10 +1103,8 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-    </row>
-    <row r="16" spans="1:31">
+    </row>
+    <row r="16" spans="1:29">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1188,8 +1129,6 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
     </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
@@ -1339,7 +1278,7 @@
     <row r="162" customFormat="1"/>
     <row r="163" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="U1:U163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="S1:S163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\bedrijven_dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5D536-9174-462F-871F-3BD8CB0EFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A2A05-7885-4667-AF90-E1BF28EF058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$163</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,9 +74,6 @@
     <t>Groothandel zonder koeling</t>
   </si>
   <si>
-    <t>LOGISTIEK</t>
-  </si>
-  <si>
     <t>fossiel trucks</t>
   </si>
   <si>
@@ -122,6 +132,9 @@
   </si>
   <si>
     <t>smart</t>
+  </si>
+  <si>
+    <t>SBI_4941</t>
   </si>
 </sst>
 </file>
@@ -567,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -605,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -626,16 +639,16 @@
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>6</v>
@@ -647,43 +660,43 @@
         <v>8</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -691,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5">
         <v>23</v>
@@ -709,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -721,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="Q2" s="5">
         <v>900000</v>

--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\bedrijven_dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A2A05-7885-4667-AF90-E1BF28EF058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170D02B5-3665-4EC5-960F-698CCCA5F35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>smart</t>
   </si>
   <si>
-    <t>SBI_4941</t>
+    <t>LOGISTIEK</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
